--- a/StructureDefinition-profile-Evidence.xlsx
+++ b/StructureDefinition-profile-Evidence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="387">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6878853-06:00</t>
+    <t>2026-02-09T22:05:43.1125117-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,314 @@
     <t>Evidence.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Evidence.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.versionAlgorithm[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Evidence.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the evidence. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.name` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:citeAs</t>
+  </si>
+  <si>
+    <t>citeAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.citeAs|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.citeAs[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Citation Resource or display of suggested citation for this evidence.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.citeAs[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:citeAsCanonical</t>
+  </si>
+  <si>
+    <t>citeAsCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Citation in FHIR R4</t>
+  </si>
+  <si>
+    <t>Evidence.extension:citeAsReference</t>
+  </si>
+  <si>
+    <t>citeAsReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Citation in FHIR R4</t>
+  </si>
+  <si>
+    <t>Evidence.extension:experimental</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.experimental|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.experimental from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this resource is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.experimental` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:purpose</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.purpose|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.purpose from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Explanation of why this Evidence is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.purpose` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the Evidence and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the Evidence.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.copyright` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `Evidence.copyrightLabel` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:assertion</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.assertion|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.assertion from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Declarative description of the Evidence.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.assertion` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:variableDefinition</t>
+  </si>
+  <si>
+    <t>variableDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.variableDefinition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.variableDefinition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Evidence variable such as population, exposure, or outcome.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.variableDefinition` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:synthesisType</t>
+  </si>
+  <si>
+    <t>synthesisType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.synthesisType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.synthesisType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The method to combine studies.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.synthesisType` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:studyDesign</t>
+  </si>
+  <si>
+    <t>studyDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.studyDesign|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.studyDesign from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The design of the study that produced this evidence. The design is described with any number of study design characteristics.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.studyDesign` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:statistic</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.statistic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Values and parameters for a single statistic.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.statistic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.extension:certainty</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Evidence.certainty from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Assessment of certainty, confidence in the estimates, or quality of the evidence.</t>
+  </si>
+  <si>
+    <t>Element `Evidence.certainty` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+  </si>
+  <si>
+    <t>Evidence.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Evidence.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -533,9 +809,6 @@
   </si>
   <si>
     <t>Name for this evidence (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the evidence. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
     <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
@@ -1254,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1263,9 +1536,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1273,7 +1546,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="28.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2229,11 +2502,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2248,17 +2521,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2295,16 +2566,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2331,7 +2600,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2339,43 +2608,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2423,7 +2692,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2432,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2447,17 +2716,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2475,23 +2746,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2539,25 +2808,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2568,12 +2837,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2582,7 +2853,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2591,23 +2862,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2655,7 +2924,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2664,19 +2933,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2684,12 +2953,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2707,19 +2978,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2769,25 +3040,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2798,12 +3069,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2821,23 +3094,21 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2885,19 +3156,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2914,12 +3185,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2937,19 +3210,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2999,22 +3272,22 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3028,12 +3301,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3054,18 +3329,18 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3113,19 +3388,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3142,12 +3417,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3168,15 +3445,17 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3225,19 +3504,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3254,18 +3533,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3274,13 +3555,13 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>184</v>
@@ -3315,13 +3596,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3339,25 +3620,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3368,14 +3649,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3391,19 +3674,19 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3453,25 +3736,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3482,21 +3765,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3505,23 +3790,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3569,25 +3852,25 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3598,12 +3881,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3612,7 +3897,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3621,19 +3906,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3683,7 +3968,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3692,13 +3977,13 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3712,12 +3997,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3726,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3735,19 +4022,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3797,22 +4084,22 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -3826,12 +4113,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3852,15 +4141,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3909,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3918,10 +4209,10 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -3938,12 +4229,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
       </c>
@@ -3961,23 +4254,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4025,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4034,13 +4325,13 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4054,14 +4345,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4074,24 +4365,26 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4115,13 +4408,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4139,7 +4432,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4151,10 +4444,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4163,19 +4456,19 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4191,20 +4484,22 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4253,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4268,13 +4563,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4282,10 +4577,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4296,7 +4591,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4305,21 +4600,23 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4367,13 +4664,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4382,13 +4679,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4396,10 +4693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4419,23 +4716,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4483,7 +4778,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4498,13 +4793,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4512,10 +4807,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4538,19 +4833,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4599,7 +4894,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4608,19 +4903,19 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4628,10 +4923,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4642,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4651,21 +4946,21 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4689,13 +4984,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4713,13 +5008,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4728,7 +5023,7 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -4742,10 +5037,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4756,7 +5051,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4768,16 +5063,18 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4825,13 +5122,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -4849,15 +5146,15 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4868,7 +5165,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4880,13 +5177,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4937,13 +5234,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4966,10 +5263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4977,30 +5274,32 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5025,13 +5324,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5049,13 +5348,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5064,35 +5363,35 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5101,18 +5400,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5161,13 +5462,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5176,24 +5477,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5204,7 +5505,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5514,10 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>287</v>
@@ -5277,13 +5578,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5292,10 +5593,10 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5306,10 +5607,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5317,10 +5618,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5332,15 +5633,17 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5389,13 +5692,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5404,7 +5707,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5418,10 +5721,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5432,7 +5735,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5444,15 +5747,17 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5501,13 +5806,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5516,7 +5821,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5530,10 +5835,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5553,16 +5858,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5613,7 +5918,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5637,6 +5942,1710 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Evidence.xlsx
+++ b/StructureDefinition-profile-Evidence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1125117-06:00</t>
+    <t>2026-02-17T14:42:26.8045549-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Evidence.versionAlgorithm[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.versionAlgorithm[x]` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A natural language name identifying the evidence. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
-    <t>Element `Evidence.name` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.name` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:citeAs</t>
@@ -501,7 +501,7 @@
     <t>Citation Resource or display of suggested citation for this evidence.</t>
   </si>
   <si>
-    <t>Element `Evidence.citeAs[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.citeAs[x]` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:citeAsCanonical</t>
@@ -538,7 +538,7 @@
     <t>A Boolean value to indicate that this resource is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
   </si>
   <si>
-    <t>Element `Evidence.experimental` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.experimental` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:purpose</t>
@@ -557,7 +557,7 @@
     <t>Explanation of why this Evidence is needed and why it has been designed as it has.</t>
   </si>
   <si>
-    <t>Element `Evidence.purpose` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.purpose` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:copyright</t>
@@ -576,7 +576,7 @@
     <t>A copyright statement relating to the Evidence and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the Evidence.</t>
   </si>
   <si>
-    <t>Element `Evidence.copyright` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.copyright` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:copyrightLabel</t>
@@ -595,7 +595,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `Evidence.copyrightLabel` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.copyrightLabel` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:assertion</t>
@@ -614,7 +614,7 @@
     <t>Declarative description of the Evidence.</t>
   </si>
   <si>
-    <t>Element `Evidence.assertion` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.assertion` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:variableDefinition</t>
@@ -633,7 +633,7 @@
     <t>Evidence variable such as population, exposure, or outcome.</t>
   </si>
   <si>
-    <t>Element `Evidence.variableDefinition` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.variableDefinition` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:synthesisType</t>
@@ -652,7 +652,7 @@
     <t>The method to combine studies.</t>
   </si>
   <si>
-    <t>Element `Evidence.synthesisType` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.synthesisType` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:studyDesign</t>
@@ -671,7 +671,7 @@
     <t>The design of the study that produced this evidence. The design is described with any number of study design characteristics.</t>
   </si>
   <si>
-    <t>Element `Evidence.studyDesign` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.studyDesign` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:statistic</t>
@@ -690,7 +690,7 @@
     <t>Values and parameters for a single statistic.</t>
   </si>
   <si>
-    <t>Element `Evidence.statistic` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.statistic` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.extension:certainty</t>
@@ -709,7 +709,7 @@
     <t>Assessment of certainty, confidence in the estimates, or quality of the evidence.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Evidence.modifierExtension</t>

--- a/StructureDefinition-profile-Evidence.xlsx
+++ b/StructureDefinition-profile-Evidence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8045549-06:00</t>
+    <t>2026-02-20T11:59:20.8047453-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Evidence|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Evidence</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.versionAlgorithm}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.name}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>citeAs</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.citeAs|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.citeAs}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.experimental|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.experimental}
 </t>
   </si>
   <si>
@@ -547,7 +547,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.purpose|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.purpose}
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyright|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyright}
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyrightLabel}
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>assertion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.assertion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.assertion}
 </t>
   </si>
   <si>
@@ -623,7 +623,7 @@
     <t>variableDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.variableDefinition|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.variableDefinition}
 </t>
   </si>
   <si>
@@ -642,7 +642,7 @@
     <t>synthesisType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.synthesisType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.synthesisType}
 </t>
   </si>
   <si>
@@ -661,7 +661,7 @@
     <t>studyDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.studyDesign|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.studyDesign}
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>statistic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic}
 </t>
   </si>
   <si>
@@ -699,7 +699,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty}
 </t>
   </si>
   <si>
@@ -1546,7 +1546,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Evidence.xlsx
+++ b/StructureDefinition-profile-Evidence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8047453-06:00</t>
+    <t>2026-02-21T13:36:54.2201037-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Evidence</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Evidence|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.versionAlgorithm}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.versionAlgorithm|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>citeAs</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.citeAs}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.citeAs|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.experimental}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.experimental|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -547,7 +547,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.purpose}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.purpose|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -566,7 +566,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyright}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyright|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyrightLabel}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.copyrightLabel|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>assertion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.assertion}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.assertion|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -623,7 +623,7 @@
     <t>variableDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.variableDefinition}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.variableDefinition|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -642,7 +642,7 @@
     <t>synthesisType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.synthesisType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.synthesisType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -661,7 +661,7 @@
     <t>studyDesign</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.studyDesign}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.studyDesign|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
     <t>statistic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.statistic|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -699,7 +699,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1546,7 +1546,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
